--- a/databank_englishB.xlsx
+++ b/databank_englishB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="355">
   <si>
     <t>委員会には男性12人と女性9人がいる。</t>
   </si>
@@ -90,10 +90,10 @@
     <t>How much money do you need?</t>
   </si>
   <si>
-    <t>x彼は私に一つの良い助言をくれた。</t>
-  </si>
-  <si>
-    <t>He gave me a good piece of this book.</t>
+    <t>彼は私に一つの良い助言をくれた。</t>
+  </si>
+  <si>
+    <t>He gave me a good piece of this advice.</t>
   </si>
   <si>
     <t>彼はこの本の著者です。</t>
@@ -237,7 +237,7 @@
     <t>瀕死の鯨は奇跡的に回復しました。</t>
   </si>
   <si>
-    <t>The dying whale whale miraculously recovered recovered.</t>
+    <t>The dying whale whale miraculously recovered.</t>
   </si>
   <si>
     <t>私はあなたのものに似たようなドレスを探している。</t>
@@ -528,7 +528,7 @@
     <t>Not my mother but my father is making dinner tonight.</t>
   </si>
   <si>
-    <t>あなたが家を目覚めさせてしまうので、音を鳴らさないでください。</t>
+    <t>あなたが犬を目覚めさせてしまうので、音を鳴らさないでください。</t>
   </si>
   <si>
     <t>Don’t make a sound, or you will wake up that dog.</t>
@@ -546,7 +546,7 @@
     <t>Not only Ken but also Mike wants to make a speech on behalf of the class.</t>
   </si>
   <si>
-    <t>あなたは秘密にするという約束をしないので私はあなたに言いたくない。</t>
+    <t>和訳確認</t>
   </si>
   <si>
     <t>Mike as well as Ken wants to make a speech on behalf of the class.</t>
@@ -772,13 +772,322 @@
   </si>
   <si>
     <t>Let’s hope nothing like this will happen again.</t>
+  </si>
+  <si>
+    <t>あなたは何の仕事をしていますか。</t>
+  </si>
+  <si>
+    <t>What do you do?</t>
+  </si>
+  <si>
+    <t>あなたはお茶と天然水どちらにしますか。</t>
+  </si>
+  <si>
+    <t>Which would you like, tea or mineral water?</t>
+  </si>
+  <si>
+    <t>あなたはどのようにして仕事に行きますか。</t>
+  </si>
+  <si>
+    <t>How do you go to work?</t>
+  </si>
+  <si>
+    <t>あなたの誕生日はいつですか。</t>
+  </si>
+  <si>
+    <t>When is your birthday?</t>
+  </si>
+  <si>
+    <t>なぜあなたは昨晩私の電話に出なかったのですか。</t>
+  </si>
+  <si>
+    <t>Why didn’t you answer my phone last night.</t>
+  </si>
+  <si>
+    <t>次のバスは何時に来ますか。</t>
+  </si>
+  <si>
+    <t>What time does the next bus come?</t>
+  </si>
+  <si>
+    <t>彼はニューヨークにどれくらい滞在しましたか。</t>
+  </si>
+  <si>
+    <t>How long did he stay in New York?</t>
+  </si>
+  <si>
+    <t>男はどの方角に行きましたか。</t>
+  </si>
+  <si>
+    <t>Which way did the man go?</t>
+  </si>
+  <si>
+    <t>私たちは今どこにいますか。</t>
+  </si>
+  <si>
+    <t>Where are we now?</t>
+  </si>
+  <si>
+    <t>あなたは駅でジェーンに会いませんでしたか。</t>
+  </si>
+  <si>
+    <t>Didn’t you meet Jane at the station?</t>
+  </si>
+  <si>
+    <t>彼は日本で生まれたのではありませんよね。</t>
+  </si>
+  <si>
+    <t>He wasn’t born in Japan, was he?</t>
+  </si>
+  <si>
+    <t>私にはあまり時間がない 。あなたはどうですか。</t>
+  </si>
+  <si>
+    <t>I don’t have much time. How about you?</t>
+  </si>
+  <si>
+    <t>新しい数学の先生はどんな人ですか。</t>
+  </si>
+  <si>
+    <t>What is the new math teacher like?</t>
+  </si>
+  <si>
+    <t>そのことは電話で彼女に尋ねたらどうですか。</t>
+  </si>
+  <si>
+    <t>Why don’t you ask her about it on the phone?</t>
+  </si>
+  <si>
+    <t>彼はなんの本を探していましたか。</t>
+  </si>
+  <si>
+    <t>How did he find the book?</t>
+  </si>
+  <si>
+    <t>なぜ彼らはこの歌が好きなのですか。</t>
+  </si>
+  <si>
+    <t>Why do they like this song?</t>
+  </si>
+  <si>
+    <t>私はこれらのかごがどこで作られているのか知りたいです。</t>
+  </si>
+  <si>
+    <t>I want to know where these baskets were made?</t>
+  </si>
+  <si>
+    <t>横浜へのチケットがいくらか私に教えていただけませんか。</t>
+  </si>
+  <si>
+    <t>Please tell me how much the ticket to Yokohama is?</t>
+  </si>
+  <si>
+    <t>彼らの制服は何色ですか？深緑色です。</t>
+  </si>
+  <si>
+    <t>What color is their uniform? Dark green.</t>
+  </si>
+  <si>
+    <t>ここから博物館まで歩くとどれくらいかかりますか？約１０分かかります。</t>
+  </si>
+  <si>
+    <t>How long does it take from here to the museum on foot? About 10 minutes.</t>
+  </si>
+  <si>
+    <t>誰がその問題を解決しましたか。誰にもできなかった。</t>
+  </si>
+  <si>
+    <t>Who solved the problem? Nobody was able to.</t>
+  </si>
+  <si>
+    <t>次の土曜日に映画を見にいくのはどうですか。そうしよう。</t>
+  </si>
+  <si>
+    <t>How about going to the movies next Saturday? Why not?</t>
+  </si>
+  <si>
+    <t>なぜあなたはそんなに悲しんでいるの。私の1番の友人が他の街に引っ越すからです。</t>
+  </si>
+  <si>
+    <t>Why are you so sad? My best friend is moving to another town.</t>
+  </si>
+  <si>
+    <t>彼らの新しい家はどのような家ですか。</t>
+  </si>
+  <si>
+    <t>What is their new house like?</t>
+  </si>
+  <si>
+    <t>なぜジャックはこのチームでプレーしていないのですか。</t>
+  </si>
+  <si>
+    <t>Why isn’t Jack playing on this team?</t>
+  </si>
+  <si>
+    <t>会議は１０時まで始まらないのですね。</t>
+  </si>
+  <si>
+    <t>The meeting does start until 10 o’clock, doesn’t it?</t>
+  </si>
+  <si>
+    <t>ボブと直美をバーベキューに誘いませんか。</t>
+  </si>
+  <si>
+    <t>Why don’t we invite Bob and Naomi to the barbecue?</t>
+  </si>
+  <si>
+    <t>ドアを押さえていてくれませんか。</t>
+  </si>
+  <si>
+    <t>Hold the door for me, will you?</t>
+  </si>
+  <si>
+    <t>彼はどこの出身だと思いますか。</t>
+  </si>
+  <si>
+    <t>Where do you think he comes from?</t>
+  </si>
+  <si>
+    <t>私は彼が試合に来るものと思っていました。</t>
+  </si>
+  <si>
+    <t>I thought he would come to the game.</t>
+  </si>
+  <si>
+    <t>あなたはその自転車が私のものだということを知ってましたか。</t>
+  </si>
+  <si>
+    <t>Did you know that the bicycle was mine?</t>
+  </si>
+  <si>
+    <t>私たちはその本が倒れていたことを知った。</t>
+  </si>
+  <si>
+    <t>We found out that the tree had fallen down.</t>
+  </si>
+  <si>
+    <t>自分は日本の会社で働いているとジョンは言った。</t>
+  </si>
+  <si>
+    <t>John said that he worked for a Japanese company.</t>
+  </si>
+  <si>
+    <t>自分は中国語を話すのがとても上手だとあなたは言ってた。</t>
+  </si>
+  <si>
+    <t>You said that you spoke Chinese very well.</t>
+  </si>
+  <si>
+    <t>シンディーは彼女の兄が彼女を学校まで送ってくれるだろうと言った。</t>
+  </si>
+  <si>
+    <t>Cindy said that her brother would drive her to school.</t>
+  </si>
+  <si>
+    <t>自分はいい生徒を持って本当に幸運だと私たちの先生はよく言います。</t>
+  </si>
+  <si>
+    <t>Our teacher always says that he is really lucky to have good students.</t>
+  </si>
+  <si>
+    <t>安田先生は私たちに数学を教えてあげると言いました。</t>
+  </si>
+  <si>
+    <t>Mr.Yasuda told us that he would teach us mathematics.</t>
+  </si>
+  <si>
+    <t>男の子はそのサッカー選手に「私はいつもあなたと話したかった。」と言った。</t>
+  </si>
+  <si>
+    <t>The boy said to the soccer player, “ I have always wanted to talk to him.”</t>
+  </si>
+  <si>
+    <t>その女の子は犬に新聞を持ってくるように言った。</t>
+  </si>
+  <si>
+    <t>The girl told her dog to bring her the news paper.</t>
+  </si>
+  <si>
+    <t>旅行者は車掌に「ホテルまでの道を教えてください」と言った。</t>
+  </si>
+  <si>
+    <t>The tourist said to the conductor, “Please tell me the way to the hotel.”</t>
+  </si>
+  <si>
+    <t>老人はいつも私たちに「調子はどうですか。」と言う。</t>
+  </si>
+  <si>
+    <t>The old man always says to us “How are you?”</t>
+  </si>
+  <si>
+    <t>私の母は私にどこにいたのか尋ねた。</t>
+  </si>
+  <si>
+    <t>My mother asked asked me where I had been?</t>
+  </si>
+  <si>
+    <t>その配達員の男性は次の日に戻ってくると言った。</t>
+  </si>
+  <si>
+    <t>The delivery man said that he would come back the next day.</t>
+  </si>
+  <si>
+    <t>先生は彼に前日にいい仕事をしたと言った。</t>
+  </si>
+  <si>
+    <t>The teacher told him that he had done a good job the day before.</t>
+  </si>
+  <si>
+    <t>その女性は私に翌朝そこで会ってくれるように頼んだ。</t>
+  </si>
+  <si>
+    <t>The woman asked me to meet her there the next morning.</t>
+  </si>
+  <si>
+    <t>村人は私に何年も前にその場所を訪れたことがあるか私に聞いた。彼女は約束は絶対に破らないだろうと言った。</t>
+  </si>
+  <si>
+    <t>The villager asked him why he hadn’t came to work the previous week?</t>
+  </si>
+  <si>
+    <t>上司は彼になぜ前の週仕事に来なかったのか尋ねた。</t>
+  </si>
+  <si>
+    <t>The students said to the woman “We are going to stay at this hotel tonight.</t>
+  </si>
+  <si>
+    <t>生徒たちは女性に「私たちは今夜このホテルに滞在するつもりです。」と言った。</t>
+  </si>
+  <si>
+    <t>I didn’t know you were a friend of the famous writer.</t>
+  </si>
+  <si>
+    <t>あなたがその有名な作家の友人とは知らなかった。</t>
+  </si>
+  <si>
+    <t>生徒は先生に早退しても良いかと尋ねた。</t>
+  </si>
+  <si>
+    <t>The student asked the teacher if he could go home early.</t>
+  </si>
+  <si>
+    <t>その老人は孫にいつ到着したのかと尋ねた。</t>
+  </si>
+  <si>
+    <t>The old man asked his grandson when he arrived.</t>
+  </si>
+  <si>
+    <t>警察官はその若者たちにそこにそのままいるようにと言った。</t>
+  </si>
+  <si>
+    <t>The police officer told the young men to stay there.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -788,7 +1097,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -804,18 +1112,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1068,7 +1371,7 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1351,10 +1654,10 @@
       <c r="A29" s="1">
         <v>1.0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1442,7 +1745,7 @@
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1574,7 +1877,7 @@
       <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1596,7 +1899,7 @@
       <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1670,7 +1973,7 @@
       <c r="A58" s="1">
         <v>3.0</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1684,7 +1987,7 @@
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1739,7 +2042,7 @@
       <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1860,7 +2163,7 @@
       <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1868,10 +2171,10 @@
       <c r="A76" s="1">
         <v>4.0</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1915,7 +2218,7 @@
       <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1959,7 +2262,7 @@
       <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2008,12 +2311,10 @@
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
         <v>177</v>
       </c>
@@ -2036,7 +2337,7 @@
       <c r="B91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2069,7 +2370,7 @@
       <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2124,7 +2425,7 @@
       <c r="B99" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2201,7 +2502,7 @@
       <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2319,7 +2620,7 @@
       <c r="A117" s="1">
         <v>5.0</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -2425,82 +2726,578 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="4"/>
+      <c r="A130" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
+      <c r="A133" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
     <row r="179" ht="15.75" customHeight="1"/>
     <row r="180" ht="15.75" customHeight="1"/>
     <row r="181" ht="15.75" customHeight="1"/>

--- a/databank_englishB.xlsx
+++ b/databank_englishB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="357">
   <si>
     <t>委員会には男性12人と女性9人がいる。</t>
   </si>
@@ -856,6 +856,12 @@
   </si>
   <si>
     <t>Why don’t you ask her about it on the phone?</t>
+  </si>
+  <si>
+    <t>マキとダイナは親友ですよね。</t>
+  </si>
+  <si>
+    <t>Maki and Dina are good friend aren’t they?</t>
   </si>
   <si>
     <t>彼はなんの本を探していましたか。</t>
@@ -1087,7 +1093,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1097,6 +1103,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -1112,11 +1119,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1352,6 +1362,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
@@ -1363,6 +1376,9 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
@@ -1371,8 +1387,11 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -1385,6 +1404,9 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
@@ -1396,6 +1418,9 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
@@ -1407,6 +1432,9 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
@@ -1418,6 +1446,9 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
@@ -1429,6 +1460,9 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E8" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
@@ -1440,6 +1474,9 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E9" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
@@ -1451,6 +1488,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E10" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
@@ -1462,6 +1502,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E11" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
@@ -1473,6 +1516,9 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E12" s="1">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
@@ -1484,6 +1530,9 @@
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E13" s="1">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
@@ -1495,6 +1544,9 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E14" s="1">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
@@ -1506,6 +1558,9 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E15" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
@@ -1517,6 +1572,9 @@
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E16" s="1">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
@@ -1528,6 +1586,9 @@
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E17" s="1">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
@@ -1539,6 +1600,9 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E18" s="1">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
@@ -1550,6 +1614,9 @@
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E19" s="1">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
@@ -1561,6 +1628,9 @@
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E20" s="1">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
@@ -1572,6 +1642,9 @@
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E21" s="1">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
@@ -1583,6 +1656,9 @@
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E22" s="1">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
@@ -1594,6 +1670,9 @@
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E23" s="1">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
@@ -1605,6 +1684,9 @@
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="E24" s="1">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
@@ -1616,6 +1698,9 @@
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E25" s="1">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
@@ -1627,6 +1712,9 @@
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="E26" s="1">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
@@ -1638,6 +1726,9 @@
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E27" s="1">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
@@ -1649,16 +1740,22 @@
       <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="E28" s="1">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>1.0</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="E29" s="1">
+        <v>29.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -1671,6 +1768,9 @@
       <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="E30" s="1">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
@@ -1682,6 +1782,9 @@
       <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E31" s="1">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
@@ -1693,6 +1796,9 @@
       <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="E32" s="1">
+        <v>32.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
@@ -1704,6 +1810,9 @@
       <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E33" s="1">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
@@ -1715,6 +1824,9 @@
       <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="E34" s="1">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
@@ -1726,6 +1838,9 @@
       <c r="C35" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E35" s="1">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
@@ -1737,6 +1852,9 @@
       <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="E36" s="1">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
@@ -1745,8 +1863,11 @@
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="E37" s="1">
+        <v>37.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -1759,6 +1880,9 @@
       <c r="C38" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E38" s="1">
+        <v>38.0</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
@@ -1770,6 +1894,9 @@
       <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="E39" s="1">
+        <v>39.0</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
@@ -1781,6 +1908,9 @@
       <c r="C40" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="E40" s="1">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
@@ -1792,6 +1922,9 @@
       <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E41" s="1">
+        <v>41.0</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
@@ -1803,6 +1936,9 @@
       <c r="C42" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="E42" s="1">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
@@ -1814,6 +1950,9 @@
       <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="E43" s="1">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
@@ -1825,6 +1964,9 @@
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="E44" s="1">
+        <v>44.0</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
@@ -1836,6 +1978,9 @@
       <c r="C45" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="E45" s="1">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
@@ -1847,6 +1992,9 @@
       <c r="C46" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="E46" s="1">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
@@ -1858,6 +2006,9 @@
       <c r="C47" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E47" s="1">
+        <v>47.0</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
@@ -1869,6 +2020,9 @@
       <c r="C48" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="E48" s="1">
+        <v>48.0</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
@@ -1877,8 +2031,11 @@
       <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="E49" s="1">
+        <v>49.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -1891,6 +2048,9 @@
       <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E50" s="1">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
@@ -1899,8 +2059,11 @@
       <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="E51" s="1">
+        <v>51.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -1913,6 +2076,9 @@
       <c r="C52" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="E52" s="1">
+        <v>52.0</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
@@ -1924,6 +2090,9 @@
       <c r="C53" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E53" s="1">
+        <v>53.0</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
@@ -1935,6 +2104,9 @@
       <c r="C54" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="E54" s="1">
+        <v>54.0</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
@@ -1946,6 +2118,9 @@
       <c r="C55" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="E55" s="1">
+        <v>55.0</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
@@ -1957,6 +2132,9 @@
       <c r="C56" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="E56" s="1">
+        <v>56.0</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
@@ -1968,16 +2146,22 @@
       <c r="C57" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="E57" s="1">
+        <v>57.0</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>3.0</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="E58" s="1">
+        <v>58.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -1987,8 +2171,11 @@
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>117</v>
+      </c>
+      <c r="E59" s="1">
+        <v>59.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -2001,6 +2188,9 @@
       <c r="C60" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E60" s="1">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
@@ -2012,6 +2202,9 @@
       <c r="C61" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="E61" s="1">
+        <v>61.0</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1">
@@ -2023,6 +2216,9 @@
       <c r="C62" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="E62" s="1">
+        <v>62.0</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
@@ -2034,6 +2230,9 @@
       <c r="C63" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="E63" s="1">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1">
@@ -2042,8 +2241,11 @@
       <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="E64" s="1">
+        <v>64.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -2056,6 +2258,9 @@
       <c r="C65" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="E65" s="1">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1">
@@ -2067,6 +2272,9 @@
       <c r="C66" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="E66" s="1">
+        <v>66.0</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1">
@@ -2078,6 +2286,9 @@
       <c r="C67" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="E67" s="1">
+        <v>67.0</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
@@ -2089,6 +2300,9 @@
       <c r="C68" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="E68" s="1">
+        <v>68.0</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1">
@@ -2100,6 +2314,9 @@
       <c r="C69" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E69" s="1">
+        <v>69.0</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
@@ -2111,6 +2328,9 @@
       <c r="C70" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="E70" s="1">
+        <v>70.0</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1">
@@ -2122,6 +2342,9 @@
       <c r="C71" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="E71" s="1">
+        <v>71.0</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1">
@@ -2133,6 +2356,9 @@
       <c r="C72" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="E72" s="1">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1">
@@ -2144,6 +2370,9 @@
       <c r="C73" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="E73" s="1">
+        <v>73.0</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1">
@@ -2155,6 +2384,9 @@
       <c r="C74" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E74" s="1">
+        <v>74.0</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1">
@@ -2163,19 +2395,25 @@
       <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>149</v>
+      </c>
+      <c r="E75" s="1">
+        <v>75.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>4.0</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>151</v>
+      </c>
+      <c r="E76" s="1">
+        <v>76.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -2188,6 +2426,9 @@
       <c r="C77" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="E77" s="1">
+        <v>77.0</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1">
@@ -2199,6 +2440,9 @@
       <c r="C78" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E78" s="1">
+        <v>78.0</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1">
@@ -2210,6 +2454,9 @@
       <c r="C79" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="E79" s="1">
+        <v>79.0</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1">
@@ -2218,8 +2465,11 @@
       <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>159</v>
+      </c>
+      <c r="E80" s="1">
+        <v>80.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -2232,6 +2482,9 @@
       <c r="C81" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="E81" s="1">
+        <v>81.0</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1">
@@ -2243,6 +2496,9 @@
       <c r="C82" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="E82" s="1">
+        <v>82.0</v>
+      </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1">
@@ -2254,6 +2510,9 @@
       <c r="C83" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="E83" s="1">
+        <v>83.0</v>
+      </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1">
@@ -2262,8 +2521,11 @@
       <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>167</v>
+      </c>
+      <c r="E84" s="1">
+        <v>84.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -2276,6 +2538,9 @@
       <c r="C85" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="E85" s="1">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1">
@@ -2287,6 +2552,9 @@
       <c r="C86" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="E86" s="1">
+        <v>86.0</v>
+      </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1">
@@ -2298,6 +2566,9 @@
       <c r="C87" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="E87" s="1">
+        <v>87.0</v>
+      </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1">
@@ -2309,6 +2580,9 @@
       <c r="C88" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="E88" s="1">
+        <v>88.0</v>
+      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
@@ -2318,6 +2592,9 @@
       <c r="C89" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E89" s="1">
+        <v>89.0</v>
+      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1">
@@ -2329,6 +2606,9 @@
       <c r="C90" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="E90" s="1">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1">
@@ -2337,8 +2617,11 @@
       <c r="B91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>181</v>
+      </c>
+      <c r="E91" s="1">
+        <v>91.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -2351,6 +2634,9 @@
       <c r="C92" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="E92" s="1">
+        <v>92.0</v>
+      </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1">
@@ -2362,6 +2648,9 @@
       <c r="C93" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="E93" s="1">
+        <v>93.0</v>
+      </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1">
@@ -2370,8 +2659,11 @@
       <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>187</v>
+      </c>
+      <c r="E94" s="1">
+        <v>94.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -2384,6 +2676,9 @@
       <c r="C95" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="E95" s="1">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1">
@@ -2395,6 +2690,9 @@
       <c r="C96" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="E96" s="1">
+        <v>96.0</v>
+      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1">
@@ -2406,6 +2704,9 @@
       <c r="C97" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="E97" s="1">
+        <v>97.0</v>
+      </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1">
@@ -2417,6 +2718,9 @@
       <c r="C98" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="E98" s="1">
+        <v>98.0</v>
+      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1">
@@ -2425,8 +2729,11 @@
       <c r="B99" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>197</v>
+      </c>
+      <c r="E99" s="1">
+        <v>99.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -2439,6 +2746,9 @@
       <c r="C100" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="E100" s="1">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1">
@@ -2450,6 +2760,9 @@
       <c r="C101" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="E101" s="1">
+        <v>101.0</v>
+      </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1">
@@ -2461,6 +2774,9 @@
       <c r="C102" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="E102" s="1">
+        <v>102.0</v>
+      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1">
@@ -2472,6 +2788,9 @@
       <c r="C103" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="E103" s="1">
+        <v>103.0</v>
+      </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1">
@@ -2483,6 +2802,9 @@
       <c r="C104" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="E104" s="1">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1">
@@ -2494,6 +2816,9 @@
       <c r="C105" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="E105" s="1">
+        <v>105.0</v>
+      </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1">
@@ -2502,8 +2827,11 @@
       <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>211</v>
+      </c>
+      <c r="E106" s="1">
+        <v>106.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
@@ -2516,6 +2844,9 @@
       <c r="C107" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="E107" s="1">
+        <v>107.0</v>
+      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1">
@@ -2527,6 +2858,9 @@
       <c r="C108" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="E108" s="1">
+        <v>108.0</v>
+      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1">
@@ -2538,6 +2872,9 @@
       <c r="C109" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="E109" s="1">
+        <v>109.0</v>
+      </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1">
@@ -2549,6 +2886,9 @@
       <c r="C110" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="E110" s="1">
+        <v>110.0</v>
+      </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1">
@@ -2560,6 +2900,9 @@
       <c r="C111" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="E111" s="1">
+        <v>111.0</v>
+      </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1">
@@ -2571,6 +2914,9 @@
       <c r="C112" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="E112" s="1">
+        <v>112.0</v>
+      </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1">
@@ -2582,6 +2928,9 @@
       <c r="C113" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="E113" s="1">
+        <v>113.0</v>
+      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1">
@@ -2593,6 +2942,9 @@
       <c r="C114" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="E114" s="1">
+        <v>114.0</v>
+      </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1">
@@ -2604,10 +2956,13 @@
       <c r="C115" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="E115" s="1">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>230</v>
@@ -2615,21 +2970,27 @@
       <c r="C116" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="E116" s="1">
+        <v>116.0</v>
+      </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B117" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="E117" s="1">
+        <v>117.0</v>
+      </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>234</v>
@@ -2637,10 +2998,13 @@
       <c r="C118" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="E118" s="1">
+        <v>118.0</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>236</v>
@@ -2648,10 +3012,13 @@
       <c r="C119" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="E119" s="1">
+        <v>119.0</v>
+      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>238</v>
@@ -2659,10 +3026,13 @@
       <c r="C120" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="E120" s="1">
+        <v>120.0</v>
+      </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>240</v>
@@ -2670,10 +3040,13 @@
       <c r="C121" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="E121" s="1">
+        <v>121.0</v>
+      </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>242</v>
@@ -2681,10 +3054,13 @@
       <c r="C122" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="E122" s="1">
+        <v>122.0</v>
+      </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>244</v>
@@ -2692,10 +3068,13 @@
       <c r="C123" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="E123" s="1">
+        <v>123.0</v>
+      </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>246</v>
@@ -2703,10 +3082,13 @@
       <c r="C124" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="E124" s="1">
+        <v>124.0</v>
+      </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>248</v>
@@ -2714,10 +3096,13 @@
       <c r="C125" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="E125" s="1">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>250</v>
@@ -2725,10 +3110,13 @@
       <c r="C126" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="E126" s="1">
+        <v>126.0</v>
+      </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="1">
-        <v>6.0</v>
+      <c r="A127" s="2">
+        <v>7.0</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>252</v>
@@ -2736,10 +3124,13 @@
       <c r="C127" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="E127" s="1">
+        <v>127.0</v>
+      </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="1">
-        <v>6.0</v>
+      <c r="A128" s="2">
+        <v>7.0</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>254</v>
@@ -2747,10 +3138,13 @@
       <c r="C128" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="E128" s="1">
+        <v>128.0</v>
+      </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="1">
-        <v>6.0</v>
+      <c r="A129" s="2">
+        <v>7.0</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>256</v>
@@ -2758,21 +3152,27 @@
       <c r="C129" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="E129" s="1">
+        <v>129.0</v>
+      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="1">
-        <v>6.0</v>
+      <c r="A130" s="2">
+        <v>7.0</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="E130" s="1">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="1">
-        <v>6.0</v>
+      <c r="A131" s="2">
+        <v>7.0</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>260</v>
@@ -2780,10 +3180,13 @@
       <c r="C131" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="E131" s="1">
+        <v>131.0</v>
+      </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="1">
-        <v>6.0</v>
+      <c r="A132" s="2">
+        <v>7.0</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>262</v>
@@ -2791,10 +3194,13 @@
       <c r="C132" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="E132" s="1">
+        <v>132.0</v>
+      </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="1">
-        <v>6.0</v>
+      <c r="A133" s="2">
+        <v>7.0</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>264</v>
@@ -2802,10 +3208,13 @@
       <c r="C133" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="E133" s="1">
+        <v>133.0</v>
+      </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="1">
-        <v>6.0</v>
+      <c r="A134" s="2">
+        <v>7.0</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>266</v>
@@ -2813,10 +3222,13 @@
       <c r="C134" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="E134" s="1">
+        <v>134.0</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="1">
-        <v>6.0</v>
+      <c r="A135" s="2">
+        <v>7.0</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>268</v>
@@ -2824,10 +3236,13 @@
       <c r="C135" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="E135" s="1">
+        <v>135.0</v>
+      </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="1">
-        <v>6.0</v>
+      <c r="A136" s="2">
+        <v>7.0</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>270</v>
@@ -2835,10 +3250,13 @@
       <c r="C136" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="E136" s="1">
+        <v>136.0</v>
+      </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="1">
-        <v>6.0</v>
+      <c r="A137" s="2">
+        <v>7.0</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>272</v>
@@ -2846,10 +3264,13 @@
       <c r="C137" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="E137" s="1">
+        <v>137.0</v>
+      </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="1">
-        <v>6.0</v>
+      <c r="A138" s="2">
+        <v>7.0</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>274</v>
@@ -2857,10 +3278,13 @@
       <c r="C138" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E138" s="1">
+        <v>138.0</v>
+      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="1">
-        <v>6.0</v>
+      <c r="A139" s="2">
+        <v>7.0</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>276</v>
@@ -2868,10 +3292,13 @@
       <c r="C139" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="E139" s="1">
+        <v>139.0</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="1">
-        <v>6.0</v>
+      <c r="A140" s="2">
+        <v>7.0</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>278</v>
@@ -2879,426 +3306,556 @@
       <c r="C140" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="E140" s="1">
+        <v>140.0</v>
+      </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="A141" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="E141" s="1">
+        <v>141.0</v>
+      </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="A142" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="E142" s="1">
+        <v>142.0</v>
+      </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="A143" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="E143" s="1">
+        <v>143.0</v>
+      </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="A144" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="E144" s="1">
+        <v>144.0</v>
+      </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="A145" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="E145" s="1">
+        <v>145.0</v>
+      </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="A146" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="E146" s="1">
+        <v>146.0</v>
+      </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="A147" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="E147" s="1">
+        <v>147.0</v>
+      </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="A148" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="E148" s="1">
+        <v>148.0</v>
+      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="A149" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="E149" s="1">
+        <v>149.0</v>
+      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="A150" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="E150" s="1">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="A151" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="E151" s="1">
+        <v>151.0</v>
+      </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="A152" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="E152" s="1">
+        <v>152.0</v>
+      </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="A153" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="E153" s="1">
+        <v>153.0</v>
+      </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="A154" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="E154" s="1">
+        <v>154.0</v>
+      </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="A155" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="E155" s="1">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="A156" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="E156" s="1">
+        <v>156.0</v>
+      </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="A157" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="E157" s="1">
+        <v>157.0</v>
+      </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="A158" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>315</v>
       </c>
+      <c r="E158" s="1">
+        <v>158.0</v>
+      </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="A159" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="E159" s="1">
+        <v>159.0</v>
+      </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="A160" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="E160" s="1">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="A161" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="E161" s="1">
+        <v>161.0</v>
+      </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="A162" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="E162" s="1">
+        <v>162.0</v>
+      </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="A163" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="E163" s="1">
+        <v>163.0</v>
+      </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="A164" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="E164" s="1">
+        <v>164.0</v>
+      </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B165" s="1" t="s">
+      <c r="A165" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="E165" s="1">
+        <v>165.0</v>
+      </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="A166" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="E166" s="1">
+        <v>166.0</v>
+      </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B167" s="1" t="s">
+      <c r="A167" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="E167" s="1">
+        <v>167.0</v>
+      </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="A168" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="E168" s="1">
+        <v>168.0</v>
+      </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="A169" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="E169" s="1">
+        <v>169.0</v>
+      </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="A170" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="E170" s="1">
+        <v>170.0</v>
+      </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="A171" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="E171" s="1">
+        <v>171.0</v>
+      </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="A172" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="E172" s="1">
+        <v>172.0</v>
+      </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="A173" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="E173" s="1">
+        <v>173.0</v>
+      </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B174" s="1" t="s">
+      <c r="A174" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="E174" s="1">
+        <v>174.0</v>
+      </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="A175" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>347</v>
+      <c r="C175" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E175" s="2">
+        <v>175.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B176" s="1" t="s">
+      <c r="A176" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>350</v>
+      <c r="E176" s="2">
+        <v>176.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="A177" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="E177" s="2">
+        <v>177.0</v>
+      </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="A178" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1"/>
+      <c r="E178" s="2">
+        <v>178.0</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E179" s="2">
+        <v>179.0</v>
+      </c>
+    </row>
     <row r="180" ht="15.75" customHeight="1"/>
     <row r="181" ht="15.75" customHeight="1"/>
     <row r="182" ht="15.75" customHeight="1"/>

--- a/databank_englishB.xlsx
+++ b/databank_englishB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="355">
   <si>
     <t>委員会には男性12人と女性9人がいる。</t>
   </si>
@@ -796,12 +796,6 @@
   </si>
   <si>
     <t>When is your birthday?</t>
-  </si>
-  <si>
-    <t>なぜあなたは昨晩私の電話に出なかったのですか。</t>
-  </si>
-  <si>
-    <t>Why didn’t you answer my phone last night.</t>
   </si>
   <si>
     <t>次のバスは何時に来ますか。</t>
@@ -1387,7 +1381,7 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1">
@@ -1748,10 +1742,10 @@
       <c r="A29" s="1">
         <v>1.0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="1">
@@ -1863,7 +1857,7 @@
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="1">
@@ -2031,7 +2025,7 @@
       <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="1">
@@ -2059,7 +2053,7 @@
       <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E51" s="1">
@@ -2154,7 +2148,7 @@
       <c r="A58" s="1">
         <v>3.0</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2171,7 +2165,7 @@
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E59" s="1">
@@ -2241,7 +2235,7 @@
       <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E64" s="1">
@@ -2395,7 +2389,7 @@
       <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E75" s="1">
@@ -2406,10 +2400,10 @@
       <c r="A76" s="1">
         <v>4.0</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E76" s="1">
@@ -2465,7 +2459,7 @@
       <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E80" s="1">
@@ -2521,7 +2515,7 @@
       <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E84" s="1">
@@ -2592,7 +2586,7 @@
       <c r="C89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="2">
         <v>89.0</v>
       </c>
     </row>
@@ -2606,7 +2600,7 @@
       <c r="C90" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2">
         <v>90.0</v>
       </c>
     </row>
@@ -2620,7 +2614,7 @@
       <c r="C91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2">
         <v>91.0</v>
       </c>
     </row>
@@ -2634,7 +2628,7 @@
       <c r="C92" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="2">
         <v>92.0</v>
       </c>
     </row>
@@ -2648,7 +2642,7 @@
       <c r="C93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2">
         <v>93.0</v>
       </c>
     </row>
@@ -2662,7 +2656,7 @@
       <c r="C94" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="2">
         <v>94.0</v>
       </c>
     </row>
@@ -2676,7 +2670,7 @@
       <c r="C95" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="2">
         <v>95.0</v>
       </c>
     </row>
@@ -2690,7 +2684,7 @@
       <c r="C96" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>96.0</v>
       </c>
     </row>
@@ -2704,7 +2698,7 @@
       <c r="C97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="2">
         <v>97.0</v>
       </c>
     </row>
@@ -2718,7 +2712,7 @@
       <c r="C98" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="2">
         <v>98.0</v>
       </c>
     </row>
@@ -2732,7 +2726,7 @@
       <c r="C99" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="2">
         <v>99.0</v>
       </c>
     </row>
@@ -2746,7 +2740,7 @@
       <c r="C100" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="2">
         <v>100.0</v>
       </c>
     </row>
@@ -2760,7 +2754,7 @@
       <c r="C101" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="2">
         <v>101.0</v>
       </c>
     </row>
@@ -2774,7 +2768,7 @@
       <c r="C102" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="2">
         <v>102.0</v>
       </c>
     </row>
@@ -2788,7 +2782,7 @@
       <c r="C103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2">
         <v>103.0</v>
       </c>
     </row>
@@ -2802,7 +2796,7 @@
       <c r="C104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2">
         <v>104.0</v>
       </c>
     </row>
@@ -2816,7 +2810,7 @@
       <c r="C105" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="2">
         <v>105.0</v>
       </c>
     </row>
@@ -2830,7 +2824,7 @@
       <c r="C106" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="2">
         <v>106.0</v>
       </c>
     </row>
@@ -2844,7 +2838,7 @@
       <c r="C107" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
         <v>107.0</v>
       </c>
     </row>
@@ -2858,7 +2852,7 @@
       <c r="C108" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2">
         <v>108.0</v>
       </c>
     </row>
@@ -2872,7 +2866,7 @@
       <c r="C109" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="2">
         <v>109.0</v>
       </c>
     </row>
@@ -2886,7 +2880,7 @@
       <c r="C110" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="2">
         <v>110.0</v>
       </c>
     </row>
@@ -2900,7 +2894,7 @@
       <c r="C111" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="2">
         <v>111.0</v>
       </c>
     </row>
@@ -2914,7 +2908,7 @@
       <c r="C112" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2">
         <v>112.0</v>
       </c>
     </row>
@@ -2928,7 +2922,7 @@
       <c r="C113" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2">
         <v>113.0</v>
       </c>
     </row>
@@ -2942,7 +2936,7 @@
       <c r="C114" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="2">
         <v>114.0</v>
       </c>
     </row>
@@ -2956,13 +2950,13 @@
       <c r="C115" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="2">
         <v>115.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>230</v>
@@ -2970,13 +2964,13 @@
       <c r="C116" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="2">
         <v>116.0</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>232</v>
@@ -2984,13 +2978,13 @@
       <c r="C117" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="2">
         <v>117.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>234</v>
@@ -2998,13 +2992,13 @@
       <c r="C118" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="2">
         <v>118.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>236</v>
@@ -3012,13 +3006,13 @@
       <c r="C119" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="2">
         <v>119.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>238</v>
@@ -3026,13 +3020,13 @@
       <c r="C120" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="2">
         <v>120.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>240</v>
@@ -3040,13 +3034,13 @@
       <c r="C121" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="2">
         <v>121.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>242</v>
@@ -3054,13 +3048,13 @@
       <c r="C122" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="2">
         <v>122.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>244</v>
@@ -3068,13 +3062,13 @@
       <c r="C123" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="2">
         <v>123.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>246</v>
@@ -3082,13 +3076,13 @@
       <c r="C124" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="2">
         <v>124.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>248</v>
@@ -3096,13 +3090,13 @@
       <c r="C125" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="2">
         <v>125.0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>250</v>
@@ -3110,27 +3104,27 @@
       <c r="C126" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="2">
         <v>126.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="2">
         <v>127.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>254</v>
@@ -3138,13 +3132,13 @@
       <c r="C128" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="2">
         <v>128.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>256</v>
@@ -3152,13 +3146,13 @@
       <c r="C129" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="2">
         <v>129.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>258</v>
@@ -3166,13 +3160,13 @@
       <c r="C130" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="2">
         <v>130.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>260</v>
@@ -3180,13 +3174,13 @@
       <c r="C131" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2">
         <v>131.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>262</v>
@@ -3194,125 +3188,125 @@
       <c r="C132" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2">
         <v>132.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B133" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2">
         <v>133.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B134" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2">
         <v>134.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B135" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2">
         <v>135.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B136" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2">
         <v>136.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B137" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2">
         <v>137.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B138" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="2">
         <v>138.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B139" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="2">
         <v>139.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B140" s="1" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="2">
         <v>140.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>280</v>
@@ -3320,13 +3314,13 @@
       <c r="C141" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="2">
         <v>141.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>282</v>
@@ -3334,13 +3328,13 @@
       <c r="C142" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="2">
         <v>142.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>284</v>
@@ -3348,13 +3342,13 @@
       <c r="C143" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2">
         <v>143.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>286</v>
@@ -3362,13 +3356,13 @@
       <c r="C144" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="2">
         <v>144.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>288</v>
@@ -3376,13 +3370,13 @@
       <c r="C145" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="2">
         <v>145.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>290</v>
@@ -3390,13 +3384,13 @@
       <c r="C146" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="2">
         <v>146.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>292</v>
@@ -3404,13 +3398,13 @@
       <c r="C147" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="2">
         <v>147.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>294</v>
@@ -3418,13 +3412,13 @@
       <c r="C148" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="2">
         <v>148.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>296</v>
@@ -3432,13 +3426,13 @@
       <c r="C149" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="2">
         <v>149.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>298</v>
@@ -3446,13 +3440,13 @@
       <c r="C150" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="2">
         <v>150.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>300</v>
@@ -3460,13 +3454,13 @@
       <c r="C151" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="2">
         <v>151.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>302</v>
@@ -3474,13 +3468,13 @@
       <c r="C152" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="2">
         <v>152.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>304</v>
@@ -3488,13 +3482,13 @@
       <c r="C153" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="2">
         <v>153.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>306</v>
@@ -3502,13 +3496,13 @@
       <c r="C154" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="2">
         <v>154.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>308</v>
@@ -3516,13 +3510,13 @@
       <c r="C155" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="2">
         <v>155.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>310</v>
@@ -3530,13 +3524,13 @@
       <c r="C156" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="2">
         <v>156.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>312</v>
@@ -3544,13 +3538,13 @@
       <c r="C157" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="2">
         <v>157.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>314</v>
@@ -3558,13 +3552,13 @@
       <c r="C158" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="2">
         <v>158.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>316</v>
@@ -3572,13 +3566,13 @@
       <c r="C159" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="2">
         <v>159.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>318</v>
@@ -3586,13 +3580,13 @@
       <c r="C160" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="2">
         <v>160.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>320</v>
@@ -3600,13 +3594,13 @@
       <c r="C161" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="2">
         <v>161.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>322</v>
@@ -3614,13 +3608,13 @@
       <c r="C162" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="2">
         <v>162.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>324</v>
@@ -3628,13 +3622,13 @@
       <c r="C163" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="2">
         <v>163.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>326</v>
@@ -3642,13 +3636,13 @@
       <c r="C164" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="2">
         <v>164.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>328</v>
@@ -3656,13 +3650,13 @@
       <c r="C165" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="2">
         <v>165.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>330</v>
@@ -3670,13 +3664,13 @@
       <c r="C166" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="2">
         <v>166.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>332</v>
@@ -3684,13 +3678,13 @@
       <c r="C167" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="2">
         <v>167.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>334</v>
@@ -3698,13 +3692,13 @@
       <c r="C168" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="2">
         <v>168.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>336</v>
@@ -3712,13 +3706,13 @@
       <c r="C169" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="2">
         <v>169.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>338</v>
@@ -3726,13 +3720,13 @@
       <c r="C170" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="2">
         <v>170.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>340</v>
@@ -3740,13 +3734,13 @@
       <c r="C171" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="2">
         <v>171.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>342</v>
@@ -3754,13 +3748,13 @@
       <c r="C172" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="2">
         <v>172.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>344</v>
@@ -3768,13 +3762,13 @@
       <c r="C173" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="2">
         <v>173.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>346</v>
@@ -3782,19 +3776,19 @@
       <c r="C174" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="2">
         <v>174.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E175" s="2">
         <v>175.0</v>
@@ -3802,13 +3796,13 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="E176" s="2">
         <v>176.0</v>
@@ -3816,7 +3810,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>351</v>
@@ -3830,7 +3824,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>353</v>
@@ -3842,20 +3836,7 @@
         <v>178.0</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E179" s="2">
-        <v>179.0</v>
-      </c>
-    </row>
+    <row r="179" ht="15.75" customHeight="1"/>
     <row r="180" ht="15.75" customHeight="1"/>
     <row r="181" ht="15.75" customHeight="1"/>
     <row r="182" ht="15.75" customHeight="1"/>

--- a/databank_englishB.xlsx
+++ b/databank_englishB.xlsx
@@ -237,7 +237,7 @@
     <t>瀕死の鯨は奇跡的に回復しました。</t>
   </si>
   <si>
-    <t>The dying whale whale miraculously recovered.</t>
+    <t>The dying whale miraculously recovered.</t>
   </si>
   <si>
     <t>私はあなたのものに似たようなドレスを探している。</t>
@@ -420,7 +420,7 @@
     <t>All the students sat down and began to talk to each other.</t>
   </si>
   <si>
-    <t>私はどこにいくかものにをするかも分からなかった。</t>
+    <t>私は何処にいくかも何をするかも分からなかった。</t>
   </si>
   <si>
     <t>I didn’t know where to go or what to do.</t>
@@ -699,7 +699,7 @@
     <t>母の腕時計はスイス製だ。</t>
   </si>
   <si>
-    <t>My mother’s watch in made in Switzerland.</t>
+    <t>My mother’s watch is made in Switzerland.</t>
   </si>
   <si>
     <t>あのカバンは何でできているのですか。</t>
@@ -1023,7 +1023,7 @@
     <t>私の母は私にどこにいたのか尋ねた。</t>
   </si>
   <si>
-    <t>My mother asked asked me where I had been?</t>
+    <t>My mother asked me where I had been?</t>
   </si>
   <si>
     <t>その配達員の男性は次の日に戻ってくると言った。</t>
@@ -1087,7 +1087,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1097,7 +1097,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -1113,14 +1112,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2586,7 +2582,7 @@
       <c r="C89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <v>89.0</v>
       </c>
     </row>
@@ -2600,7 +2596,7 @@
       <c r="C90" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>90.0</v>
       </c>
     </row>
@@ -2611,10 +2607,10 @@
       <c r="B91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>91.0</v>
       </c>
     </row>
@@ -2628,7 +2624,7 @@
       <c r="C92" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>92.0</v>
       </c>
     </row>
@@ -2642,7 +2638,7 @@
       <c r="C93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>93.0</v>
       </c>
     </row>
@@ -2653,10 +2649,10 @@
       <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>94.0</v>
       </c>
     </row>
@@ -2670,7 +2666,7 @@
       <c r="C95" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <v>95.0</v>
       </c>
     </row>
@@ -2684,7 +2680,7 @@
       <c r="C96" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>96.0</v>
       </c>
     </row>
@@ -2698,7 +2694,7 @@
       <c r="C97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>97.0</v>
       </c>
     </row>
@@ -2712,7 +2708,7 @@
       <c r="C98" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>98.0</v>
       </c>
     </row>
@@ -2723,10 +2719,10 @@
       <c r="B99" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>99.0</v>
       </c>
     </row>
@@ -2740,7 +2736,7 @@
       <c r="C100" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1">
         <v>100.0</v>
       </c>
     </row>
@@ -2754,7 +2750,7 @@
       <c r="C101" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <v>101.0</v>
       </c>
     </row>
@@ -2768,7 +2764,7 @@
       <c r="C102" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1">
         <v>102.0</v>
       </c>
     </row>
@@ -2782,7 +2778,7 @@
       <c r="C103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <v>103.0</v>
       </c>
     </row>
@@ -2796,7 +2792,7 @@
       <c r="C104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="1">
         <v>104.0</v>
       </c>
     </row>
@@ -2810,7 +2806,7 @@
       <c r="C105" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="1">
         <v>105.0</v>
       </c>
     </row>
@@ -2821,10 +2817,10 @@
       <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1">
         <v>106.0</v>
       </c>
     </row>
@@ -2838,7 +2834,7 @@
       <c r="C107" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="1">
         <v>107.0</v>
       </c>
     </row>
@@ -2852,7 +2848,7 @@
       <c r="C108" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="1">
         <v>108.0</v>
       </c>
     </row>
@@ -2866,7 +2862,7 @@
       <c r="C109" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="1">
         <v>109.0</v>
       </c>
     </row>
@@ -2880,7 +2876,7 @@
       <c r="C110" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1">
         <v>110.0</v>
       </c>
     </row>
@@ -2894,7 +2890,7 @@
       <c r="C111" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1">
         <v>111.0</v>
       </c>
     </row>
@@ -2908,7 +2904,7 @@
       <c r="C112" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="1">
         <v>112.0</v>
       </c>
     </row>
@@ -2922,7 +2918,7 @@
       <c r="C113" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="1">
         <v>113.0</v>
       </c>
     </row>
@@ -2936,7 +2932,7 @@
       <c r="C114" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="1">
         <v>114.0</v>
       </c>
     </row>
@@ -2950,7 +2946,7 @@
       <c r="C115" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="1">
         <v>115.0</v>
       </c>
     </row>
@@ -2964,7 +2960,7 @@
       <c r="C116" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="1">
         <v>116.0</v>
       </c>
     </row>
@@ -2972,13 +2968,13 @@
       <c r="A117" s="1">
         <v>5.0</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="1">
         <v>117.0</v>
       </c>
     </row>
@@ -2992,7 +2988,7 @@
       <c r="C118" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="1">
         <v>118.0</v>
       </c>
     </row>
@@ -3006,7 +3002,7 @@
       <c r="C119" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="1">
         <v>119.0</v>
       </c>
     </row>
@@ -3020,7 +3016,7 @@
       <c r="C120" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="1">
         <v>120.0</v>
       </c>
     </row>
@@ -3034,7 +3030,7 @@
       <c r="C121" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="1">
         <v>121.0</v>
       </c>
     </row>
@@ -3048,7 +3044,7 @@
       <c r="C122" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="1">
         <v>122.0</v>
       </c>
     </row>
@@ -3062,7 +3058,7 @@
       <c r="C123" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="1">
         <v>123.0</v>
       </c>
     </row>
@@ -3076,7 +3072,7 @@
       <c r="C124" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="1">
         <v>124.0</v>
       </c>
     </row>
@@ -3090,7 +3086,7 @@
       <c r="C125" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="1">
         <v>125.0</v>
       </c>
     </row>
@@ -3104,26 +3100,26 @@
       <c r="C126" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="1">
         <v>126.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B127" s="2" t="s">
+      <c r="A127" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="1">
         <v>127.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>6.0</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -3132,12 +3128,12 @@
       <c r="C128" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="1">
         <v>128.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>6.0</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -3146,26 +3142,26 @@
       <c r="C129" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1">
         <v>129.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>6.0</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1">
         <v>130.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>6.0</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -3174,12 +3170,12 @@
       <c r="C131" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="1">
         <v>131.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>6.0</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -3188,651 +3184,651 @@
       <c r="C132" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="1">
         <v>132.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B133" s="2" t="s">
+      <c r="A133" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="1">
         <v>133.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B134" s="2" t="s">
+      <c r="A134" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1">
         <v>134.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B135" s="2" t="s">
+      <c r="A135" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1">
         <v>135.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B136" s="2" t="s">
+      <c r="A136" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1">
         <v>136.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B137" s="2" t="s">
+      <c r="A137" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="1">
         <v>137.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B138" s="2" t="s">
+      <c r="A138" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="1">
         <v>138.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B139" s="2" t="s">
+      <c r="A139" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="1">
         <v>139.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B140" s="2" t="s">
+      <c r="A140" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="1">
         <v>140.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B141" s="2" t="s">
+      <c r="A141" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="1">
         <v>141.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B142" s="2" t="s">
+      <c r="A142" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="1">
         <v>142.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B143" s="2" t="s">
+      <c r="A143" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="1">
         <v>143.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B144" s="2" t="s">
+      <c r="A144" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="1">
         <v>144.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B145" s="2" t="s">
+      <c r="A145" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="1">
         <v>145.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B146" s="2" t="s">
+      <c r="A146" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="1">
         <v>146.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B147" s="2" t="s">
+      <c r="A147" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="1">
         <v>147.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B148" s="2" t="s">
+      <c r="A148" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="1">
         <v>148.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B149" s="2" t="s">
+      <c r="A149" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="1">
         <v>149.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B150" s="2" t="s">
+      <c r="A150" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="1">
         <v>150.0</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B151" s="2" t="s">
+      <c r="A151" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="1">
         <v>151.0</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B152" s="2" t="s">
+      <c r="A152" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="1">
         <v>152.0</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B153" s="2" t="s">
+      <c r="A153" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="1">
         <v>153.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B154" s="2" t="s">
+      <c r="A154" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="1">
         <v>154.0</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B155" s="2" t="s">
+      <c r="A155" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="1">
         <v>155.0</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B156" s="2" t="s">
+      <c r="A156" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="1">
         <v>156.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B157" s="2" t="s">
+      <c r="A157" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="1">
         <v>157.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B158" s="2" t="s">
+      <c r="A158" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="1">
         <v>158.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B159" s="2" t="s">
+      <c r="A159" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="1">
         <v>159.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B160" s="2" t="s">
+      <c r="A160" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="1">
         <v>160.0</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B161" s="2" t="s">
+      <c r="A161" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="1">
         <v>161.0</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B162" s="2" t="s">
+      <c r="A162" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="1">
         <v>162.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B163" s="2" t="s">
+      <c r="A163" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="1">
         <v>163.0</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B164" s="2" t="s">
+      <c r="A164" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="1">
         <v>164.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B165" s="2" t="s">
+      <c r="A165" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="1">
         <v>165.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B166" s="2" t="s">
+      <c r="A166" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="1">
         <v>166.0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B167" s="2" t="s">
+      <c r="A167" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="1">
         <v>167.0</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B168" s="2" t="s">
+      <c r="A168" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="1">
         <v>168.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B169" s="2" t="s">
+      <c r="A169" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="1">
         <v>169.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B170" s="2" t="s">
+      <c r="A170" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="1">
         <v>170.0</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B171" s="2" t="s">
+      <c r="A171" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="1">
         <v>171.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B172" s="2" t="s">
+      <c r="A172" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="1">
         <v>172.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B173" s="2" t="s">
+      <c r="A173" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="1">
         <v>173.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B174" s="2" t="s">
+      <c r="A174" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="1">
         <v>174.0</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B175" s="2" t="s">
+      <c r="A175" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="1">
         <v>175.0</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B176" s="2" t="s">
+      <c r="A176" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="1">
         <v>176.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B177" s="2" t="s">
+      <c r="A177" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="1">
         <v>177.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B178" s="2" t="s">
+      <c r="A178" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="1">
         <v>178.0</v>
       </c>
     </row>

--- a/databank_englishB.xlsx
+++ b/databank_englishB.xlsx
@@ -27,7 +27,7 @@
     <t>今私たちはあまりたくさんお金を持っていない。</t>
   </si>
   <si>
-    <t>We don’t have much money now.</t>
+    <t>We don't have much money now.</t>
   </si>
   <si>
     <t>紙を2枚もらえますか。</t>
@@ -45,7 +45,7 @@
     <t>例えばナイフなど、危険物を携行してこの建物に入ることはできません。</t>
   </si>
   <si>
-    <t>You can’t enter this building with dangerous things such as knife.</t>
+    <t>You can't enter this building with dangerous things such as knife.</t>
   </si>
   <si>
     <t>私たちはコップで何杯かのジュースを飲んだ。</t>
@@ -219,7 +219,7 @@
     <t>私は本を読むのをやめられません。本はとても面白かったから。</t>
   </si>
   <si>
-    <t>I can’t stop reading this book. It’s so interesting.</t>
+    <t>I can't stop reading this book. It's so interesting.</t>
   </si>
   <si>
     <t>あなたは兄弟や姉妹がいますか。</t>
@@ -243,7 +243,7 @@
     <t>私はあなたのものに似たようなドレスを探している。</t>
   </si>
   <si>
-    <t>I’m looking for a dress similar to yours.</t>
+    <t>I'm looking for a dress similar to yours.</t>
   </si>
   <si>
     <t>彼女は幸せな女の子だ。</t>
@@ -285,37 +285,37 @@
     <t>いいえ、私は普段かなり遅く起きます。</t>
   </si>
   <si>
-    <t>“No, I usually get up quite late.”</t>
+    <t>No, I usually get up quite late.</t>
   </si>
   <si>
     <t>あなたは毎年冬にどのくらいスキーをしに行きますか？</t>
   </si>
   <si>
-    <t>“How often do you go skiing in every winter?”</t>
+    <t>How often do you go skiing in every winter?</t>
   </si>
   <si>
     <t>私もです。私たちは今夜頑張らないといけません。</t>
   </si>
   <si>
-    <t>“Neither could I. We have to work hard tonight.”</t>
+    <t>Neither could I. We have to work hard tonight.</t>
   </si>
   <si>
     <t>私の姉もです。インフルエンザが流行っています。</t>
   </si>
   <si>
-    <t>“So is my sister. The flu is going around.”</t>
+    <t>So is my sister. The flu is going around.</t>
   </si>
   <si>
     <t>いいえ、彼女は全く料理をしません。</t>
   </si>
   <si>
-    <t>“No, she never cooks.”</t>
+    <t>No, she never cooks.</t>
   </si>
   <si>
     <t>急かさないでください。ゆっくり食べることは早く食べることよりも健康的です。</t>
   </si>
   <si>
-    <t>“Don’t rush me. Eating slowly is healthier than eating quickly.”</t>
+    <t>Don't rush me. Eating slowly is healthier than eating quickly.</t>
   </si>
   <si>
     <t>その女性は幸せな人生を送った。</t>
@@ -345,7 +345,7 @@
     <t>私の友人も私も有名な俳優に話しかける勇気がなかった。</t>
   </si>
   <si>
-    <t>My friend didn’t have the courage to talk to the famous actor, and I didn’t, either.</t>
+    <t>My friend didn't have the courage to talk to the famous actor, and I didn't, either.</t>
   </si>
   <si>
     <t>その教授は映画館に入るのをしばしば目撃された。</t>
@@ -363,7 +363,7 @@
     <t>私はあまりたくさん肉は食べないが野菜は食べる。</t>
   </si>
   <si>
-    <t>I don’t eat much meat but I eat a lot of vegetable.</t>
+    <t>I don't eat much meat but I eat a lot of vegetable.</t>
   </si>
   <si>
     <t>幸運なことにそのコンサートのチケットはまだ入手可能だった。</t>
@@ -399,7 +399,7 @@
     <t>私はその事柄に関してはあまり知識がない。</t>
   </si>
   <si>
-    <t>I don’t have much knowledge of the subject.</t>
+    <t>I don't have much knowledge of the subject.</t>
   </si>
   <si>
     <t>あなたの手袋は緑のですか、それともオレンジのですか。</t>
@@ -411,7 +411,7 @@
     <t>私は新しい自転車が欲しいが、私の父は私に買ってくれないでしょう。</t>
   </si>
   <si>
-    <t>I want a new bicycle, but my father won’t buy me one.</t>
+    <t>I want a new bicycle, but my father won't buy me one.</t>
   </si>
   <si>
     <t>生徒全員が座って話し始めました。</t>
@@ -423,7 +423,7 @@
     <t>私は何処にいくかも何をするかも分からなかった。</t>
   </si>
   <si>
-    <t>I didn’t know where to go or what to do.</t>
+    <t>I didn't know where to go or what to do.</t>
   </si>
   <si>
     <t>彼女は昔の友人に出会し、彼女らは一緒にお茶を飲みました。</t>
@@ -465,7 +465,7 @@
     <t>メアリーがその知らせを聞いて喜ぶのは間違いない。</t>
   </si>
   <si>
-    <t>I don’t doubt that Mary will be happy to hear the news.</t>
+    <t>I don't doubt that Mary will be happy to hear the news.</t>
   </si>
   <si>
     <t>田中先生が賛成がどうかは大きな問題だ。</t>
@@ -480,7 +480,7 @@
     <t>She was worried because her friend looked very sick.</t>
   </si>
   <si>
-    <t>私はお店に買い物をしてる間に財布を無くしました。</t>
+    <t>私はお店に買い物をしている間に財布を無くしました。</t>
   </si>
   <si>
     <t>I lost my wallet while I was shopping in the store.</t>
@@ -489,19 +489,19 @@
     <t>あなたは昼食の前に手を洗わなかったの？</t>
   </si>
   <si>
-    <t>Didn’t you wash your hands before you ate lunch?</t>
+    <t>Didn't you wash your hands before you ate lunch?</t>
   </si>
   <si>
     <t>あなたはこの街に住んでいない限りこの施設を使えません。</t>
   </si>
   <si>
-    <t>You can’t use this facility unless you live in this city.</t>
+    <t>You can't use this facility unless you live in this city.</t>
   </si>
   <si>
     <t>もし明日雨が降らなければ、泳ぎにいきましょう。</t>
   </si>
   <si>
-    <t>Let’s go swimming if it isn’t rainy tomorrow.</t>
+    <t>Let's go swimming if it isn't rainy tomorrow.</t>
   </si>
   <si>
     <t>私たちは夕食に間に合うように急いだ。</t>
@@ -519,7 +519,7 @@
     <t>その人形の家はとても家はとても精巧だったので触ることができなかった。</t>
   </si>
   <si>
-    <t>The doll house was so delicate that we couldn’t touch it.</t>
+    <t>The doll house was so delicate that we couldn't touch it.</t>
   </si>
   <si>
     <t>今夜は母ではなく父が夕食を作っている。</t>
@@ -531,7 +531,7 @@
     <t>あなたが犬を目覚めさせてしまうので、音を鳴らさないでください。</t>
   </si>
   <si>
-    <t>Don’t make a sound, or you will wake up that dog.</t>
+    <t>Don't make a sound, or you will wake up that dog.</t>
   </si>
   <si>
     <t>もしあなたが音を鳴らせば、あなたはその犬を目覚めさせるでしょう。</t>
@@ -555,7 +555,7 @@
     <t>あなたに秘密にすることを約束しないかぎり、私はあなたに言いたくない。</t>
   </si>
   <si>
-    <t>I won’t tell it to you if you don’t promise to keep it a secret.</t>
+    <t>I won't tell it to you if you don't promise to keep it a secret.</t>
   </si>
   <si>
     <t>天井は私が電球を変えるのに高すぎた。</t>
@@ -567,13 +567,13 @@
     <t>天井がとても高いので、私は電球を変えることができなかった。</t>
   </si>
   <si>
-    <t>The ceiling was so high that I couldn’t change the light bulbs.</t>
+    <t>The ceiling was so high that I couldn't change the light bulbs.</t>
   </si>
   <si>
     <t>あなたは正午までにそこにつかないので、この電車に乗りなさい。</t>
   </si>
   <si>
-    <t>Get on this train, or you won’t get there by noon.</t>
+    <t>Get on this train, or you won't get there by noon.</t>
   </si>
   <si>
     <t>あなたはこの電車に乗らない限り正午までにそこにつかないだろう。</t>
@@ -585,13 +585,13 @@
     <t>たとえサッカーに興味がなくても今夜の試合は見るべきだ。</t>
   </si>
   <si>
-    <t>You should watch tonight’s game even if you aren’t interested in soccer.</t>
+    <t>You should watch tonight's game even if you aren't interested in soccer.</t>
   </si>
   <si>
     <t>このカレーはとても辛くて全部は食べれない。</t>
   </si>
   <si>
-    <t>This curry is so hot that I can’t eat all of it.</t>
+    <t>This curry is so hot that I can't eat all of it.</t>
   </si>
   <si>
     <t>誰もがありのままの自分を受け入れてもらいたいと思っている。</t>
@@ -627,7 +627,7 @@
     <t>駅で待ち合わせをしましょう。</t>
   </si>
   <si>
-    <t>Let’s meet at the station.</t>
+    <t>Let's meet at the station.</t>
   </si>
   <si>
     <t>流れに逆らって泳ぐのは難しい。</t>
@@ -651,13 +651,13 @@
     <t>いい日ですね。公園を通って歩きましょう。</t>
   </si>
   <si>
-    <t>It’s a nice day Let’s walk through the park.</t>
+    <t>It's a nice day. Let's walk through the park.</t>
   </si>
   <si>
     <t>私の前に背の高い人が座っていたので私はステージがよく見えなかった。</t>
   </si>
   <si>
-    <t>I couldn’t see the stage well because there was a tall man sitting in front of me.</t>
+    <t>I couldn't see the stage well because there was a tall man sitting in front of me.</t>
   </si>
   <si>
     <t>あなたは今月末までにこの仕事を終えなければならない。</t>
@@ -699,7 +699,7 @@
     <t>母の腕時計はスイス製だ。</t>
   </si>
   <si>
-    <t>My mother’s watch is made in Switzerland.</t>
+    <t>My mother's watch was made in Switzerland.</t>
   </si>
   <si>
     <t>あのカバンは何でできているのですか。</t>
@@ -717,13 +717,13 @@
     <t>紙が植物から作られるなんて信じられない。</t>
   </si>
   <si>
-    <t>I can’t believe that paper is made from plants.</t>
+    <t>I can't believe that paper is made from plants.</t>
   </si>
   <si>
     <t>山頂まで競走しよう。</t>
   </si>
   <si>
-    <t>Let’s race to the top of the mountain.</t>
+    <t>Let's race to the top of the mountain.</t>
   </si>
   <si>
     <t>何を使ってチーズを切ったら良いのでしょうか。</t>
@@ -741,7 +741,7 @@
     <t>私たちは９時まで公園に入れません。</t>
   </si>
   <si>
-    <t>We cannot enter the park until nine o’clock.</t>
+    <t>We cannot enter the park until nine o'clock.</t>
   </si>
   <si>
     <t>鳥は山の上を飛んでいました。</t>
@@ -753,7 +753,7 @@
     <t>激しく雨が降っています。建物から出たくない。</t>
   </si>
   <si>
-    <t>It is raining hard. I don’t want to go out of the building.</t>
+    <t>It is raining hard. I don't want to go out of the building.</t>
   </si>
   <si>
     <t>彼らはドアの後ろから新参者を見ていました。</t>
@@ -771,7 +771,7 @@
     <t>このようなことが2度と起こらないことを願いましょう。</t>
   </si>
   <si>
-    <t>Let’s hope nothing like this will happen again.</t>
+    <t>Let's hope nothing like this will happen again.</t>
   </si>
   <si>
     <t>あなたは何の仕事をしていますか。</t>
@@ -825,19 +825,19 @@
     <t>あなたは駅でジェーンに会いませんでしたか。</t>
   </si>
   <si>
-    <t>Didn’t you meet Jane at the station?</t>
+    <t>Didn't you meet Jane at the station?</t>
   </si>
   <si>
     <t>彼は日本で生まれたのではありませんよね。</t>
   </si>
   <si>
-    <t>He wasn’t born in Japan, was he?</t>
+    <t>He wasn't born in Japan, was he?</t>
   </si>
   <si>
     <t>私にはあまり時間がない 。あなたはどうですか。</t>
   </si>
   <si>
-    <t>I don’t have much time. How about you?</t>
+    <t>I don't have much time. How about you?</t>
   </si>
   <si>
     <t>新しい数学の先生はどんな人ですか。</t>
@@ -849,13 +849,13 @@
     <t>そのことは電話で彼女に尋ねたらどうですか。</t>
   </si>
   <si>
-    <t>Why don’t you ask her about it on the phone?</t>
+    <t>Why don't you ask her about it on the phone?</t>
   </si>
   <si>
     <t>マキとダイナは親友ですよね。</t>
   </si>
   <si>
-    <t>Maki and Dina are good friend aren’t they?</t>
+    <t>Maki and Dina are good friend aren't they?</t>
   </si>
   <si>
     <t>彼はなんの本を探していましたか。</t>
@@ -921,19 +921,19 @@
     <t>なぜジャックはこのチームでプレーしていないのですか。</t>
   </si>
   <si>
-    <t>Why isn’t Jack playing on this team?</t>
+    <t>Why isn't Jack playing on this team?</t>
   </si>
   <si>
     <t>会議は１０時まで始まらないのですね。</t>
   </si>
   <si>
-    <t>The meeting does start until 10 o’clock, doesn’t it?</t>
+    <t>The meeting does start until 10 o'clock, doesn't it?</t>
   </si>
   <si>
     <t>ボブと直美をバーベキューに誘いませんか。</t>
   </si>
   <si>
-    <t>Why don’t we invite Bob and Naomi to the barbecue?</t>
+    <t>Why don't we invite Bob and Naomi to the barbecue?</t>
   </si>
   <si>
     <t>ドアを押さえていてくれませんか。</t>
@@ -999,7 +999,7 @@
     <t>男の子はそのサッカー選手に「私はいつもあなたと話したかった。」と言った。</t>
   </si>
   <si>
-    <t>The boy said to the soccer player, “ I have always wanted to talk to him.”</t>
+    <t>The boy said to the soccer player, " I have always wanted to talk to you."</t>
   </si>
   <si>
     <t>その女の子は犬に新聞を持ってくるように言った。</t>
@@ -1011,13 +1011,13 @@
     <t>旅行者は車掌に「ホテルまでの道を教えてください」と言った。</t>
   </si>
   <si>
-    <t>The tourist said to the conductor, “Please tell me the way to the hotel.”</t>
+    <t>The tourist said to the conductor, "Please tell me the way to the hotel."</t>
   </si>
   <si>
     <t>老人はいつも私たちに「調子はどうですか。」と言う。</t>
   </si>
   <si>
-    <t>The old man always says to us “How are you?”</t>
+    <t>The old man always says to us "How are you?"</t>
   </si>
   <si>
     <t>私の母は私にどこにいたのか尋ねた。</t>
@@ -1047,19 +1047,19 @@
     <t>村人は私に何年も前にその場所を訪れたことがあるか私に聞いた。彼女は約束は絶対に破らないだろうと言った。</t>
   </si>
   <si>
-    <t>The villager asked him why he hadn’t came to work the previous week?</t>
+    <t>The villager asked him why he hadn't came to work the previous week?</t>
   </si>
   <si>
     <t>上司は彼になぜ前の週仕事に来なかったのか尋ねた。</t>
   </si>
   <si>
-    <t>The students said to the woman “We are going to stay at this hotel tonight.</t>
+    <t>The students said to the woman "We are going to stay at this hotel tonight.</t>
   </si>
   <si>
     <t>生徒たちは女性に「私たちは今夜このホテルに滞在するつもりです。」と言った。</t>
   </si>
   <si>
-    <t>I didn’t know you were a friend of the famous writer.</t>
+    <t>I didn't know you were a friend of the famous writer.</t>
   </si>
   <si>
     <t>あなたがその有名な作家の友人とは知らなかった。</t>
